--- a/Vodka_labs/lab2/Template.xlsx
+++ b/Vodka_labs/lab2/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="15585" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="15585" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="40 000 000" sheetId="1" r:id="rId1"/>
@@ -230,28 +230,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.97</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.84</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.95</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.61</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.29</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.47</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.21</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.78</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,10 +386,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.95</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,28 +823,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.87</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.77</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.54</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.09</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.04</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7699999999999996</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,10 +979,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,12 +1439,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблиця146" displayName="Таблиця146" ref="B23:D25" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблиця146" displayName="Таблиця146" ref="B23:D25" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B23:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Кількість ядер"/>
-    <tableColumn id="2" name="Час виконання, с" dataDxfId="4"/>
-    <tableColumn id="3" name="Прискорення, разів" dataDxfId="3">
+    <tableColumn id="2" name="Час виконання, с" dataDxfId="7"/>
+    <tableColumn id="3" name="Прискорення, разів" dataDxfId="6">
       <calculatedColumnFormula>(C24/$C$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1453,12 +1453,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблиця14" displayName="Таблиця14" ref="B23:D25" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблиця14" displayName="Таблиця14" ref="B23:D25" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B23:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Кількість ядер"/>
-    <tableColumn id="2" name="Час виконання, с" dataDxfId="7"/>
-    <tableColumn id="3" name="Прискорення, разів" dataDxfId="6">
+    <tableColumn id="2" name="Час виконання, с" dataDxfId="4"/>
+    <tableColumn id="3" name="Прискорення, разів" dataDxfId="3">
       <calculatedColumnFormula>(C24/$C$24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1778,7 +1778,7 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0.81585799999999997</v>
+        <v>0.14124300000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.97</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1823,10 +1823,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>0.43280099999999999</v>
+        <v>7.0306999999999994E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>1.84</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1834,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>0.28881000000000001</v>
+        <v>4.7595999999999999E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>2.95</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1845,10 +1845,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>0.220694</v>
+        <v>3.7664000000000003E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>3.61</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1856,10 +1856,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.241205</v>
+        <v>5.2364000000000001E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>3.29</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1867,10 +1867,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23216300000000001</v>
+        <v>4.4114E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>3.47</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1878,10 +1878,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>0.18890000000000001</v>
+        <v>3.7990999999999997E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>4.21</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -1889,10 +1889,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>0.166631</v>
+        <v>3.3439000000000003E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>4.78</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>1.1259999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1927,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>0.95799999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="D25" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1948,7 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1.6273299999999999</v>
+        <v>0.28151100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.99</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1991,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>0.85631199999999996</v>
+        <v>0.14153299999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>1.87</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2002,10 +2002,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>0.57608199999999998</v>
+        <v>9.4948000000000005E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>2.77</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>0.45125399999999999</v>
+        <v>7.0926000000000003E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>3.54</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2024,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.52966199999999997</v>
+        <v>0.105924</v>
       </c>
       <c r="D8" s="1">
-        <v>3.09</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2035,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>0.44192399999999998</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>3.6</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2046,10 +2046,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>0.39575199999999999</v>
+        <v>7.5847999999999999E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>4.04</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2057,10 +2057,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>0.33371400000000001</v>
+        <v>6.7073999999999995E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>4.7699999999999996</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>2.4950000000000001</v>
+        <v>5.1360000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -2095,10 +2095,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>2.012</v>
+        <v>3.6150000000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
